--- a/Asset/table/npc_content.xlsx
+++ b/Asset/table/npc_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\Project-2\Asset\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B388FE-2EC3-4D59-8837-5C24004BA101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB164AD-A83E-4DF9-984F-C41682DE8A1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>Senior Worker: Everyone in this office seems busy…</t>
   </si>
@@ -250,6 +250,78 @@
   </si>
   <si>
     <t>George: Very well! Your ability is impressive, here is the card!</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>John: Hey, How do you do bro?</t>
+  </si>
+  <si>
+    <t>Enemy: Wow, seems our company has a little Asian.</t>
+  </si>
+  <si>
+    <t>John: What did you said?</t>
+  </si>
+  <si>
+    <t>Enemy: Why your eyes are so small? (Squint his eyes) What are you going to do? Mop this floor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John: Ridiculous, I am leaving. </t>
+  </si>
+  <si>
+    <t>Enemy: What is on your pocket? Did you want to report me? (Reach out)</t>
+  </si>
+  <si>
+    <t>John: Don’t touch me!</t>
+  </si>
+  <si>
+    <t>(Your file is been broken, You can have it from the copy machine)</t>
+  </si>
+  <si>
+    <t>John: How are you?</t>
+  </si>
+  <si>
+    <t>L3M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry: Did I know you before? </t>
+  </si>
+  <si>
+    <t>John: I am sure not. I came from business department, my name is John.</t>
+  </si>
+  <si>
+    <t>Harry: Harry, can you do me a favor?</t>
+  </si>
+  <si>
+    <t>Harry: I am trying to use the projector in my meeting, but the projector are not working!</t>
+  </si>
+  <si>
+    <t>John: Let me look at it…</t>
+  </si>
+  <si>
+    <t>John: The software is correct.. Wire is conneted… Power is good…... Wait a second..</t>
+  </si>
+  <si>
+    <t>John: You are in the wrong channel, you need to switch to the "Computer mode"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry: Oh, that is interesting. Thanks You! </t>
+  </si>
+  <si>
+    <t>John: Let me know if you have more question about it.</t>
+  </si>
+  <si>
+    <t>John: Have you try ture it off and on it again?</t>
+  </si>
+  <si>
+    <t>Harry: Of course i have...</t>
+  </si>
+  <si>
+    <t>John: Then I don’t know how to do it!</t>
+  </si>
+  <si>
+    <t>Harry: Sure, maybe I need to call someone in tech department…</t>
   </si>
 </sst>
 </file>
@@ -573,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1539,6 +1611,314 @@
         <v>74</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset/table/npc_content.xlsx
+++ b/Asset/table/npc_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\Project-2\Asset\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB164AD-A83E-4DF9-984F-C41682DE8A1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8698B6-3523-4BC2-8E3E-4BB54C81BEFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
   <si>
     <t>Senior Worker: Everyone in this office seems busy…</t>
   </si>
@@ -322,6 +322,135 @@
   </si>
   <si>
     <t>Harry: Sure, maybe I need to call someone in tech department…</t>
+  </si>
+  <si>
+    <t>L3M3</t>
+  </si>
+  <si>
+    <t>John: Hey buddy, do you know where is the Boss Office?</t>
+  </si>
+  <si>
+    <t>Simon: Do you think the executives has some kind of discrimination on my education background?</t>
+  </si>
+  <si>
+    <t>John: What? No, not really, Why?</t>
+  </si>
+  <si>
+    <t>Simon: In the upper left corner, and I recommend you, don't ask any thing about wage.</t>
+  </si>
+  <si>
+    <t>John: Why? Everybody wants a better wage.</t>
+  </si>
+  <si>
+    <t>Simon: Because I have been working here for a year, what is wrong with a higher salary requirement?</t>
+  </si>
+  <si>
+    <t>Simon: I was working so hard in this year, but my salary cannot higher than a college student just graduate.</t>
+  </si>
+  <si>
+    <t>John: How did you know that?</t>
+  </si>
+  <si>
+    <t>Simon: I want to meet some new blood, and I got it through them.</t>
+  </si>
+  <si>
+    <t>John: All right, so did you think about your own reasons?</t>
+  </si>
+  <si>
+    <t>John: I think the executives has some kind of measurement of everyone's wage, and your work cannot met those requirment.</t>
+  </si>
+  <si>
+    <t>John: That doesn't about what is your education background is.</t>
+  </si>
+  <si>
+    <t>Simon: But I was working so hard, so I am qualify to have it.</t>
+  </si>
+  <si>
+    <t>Simon: You will never know it, See You.</t>
+  </si>
+  <si>
+    <t>John: Well, you cannot talking about the salary around the colleagues.</t>
+  </si>
+  <si>
+    <t>Simon: Does it related to my problem?</t>
+  </si>
+  <si>
+    <t>John: No, but I want to tell you the wage are privacy for each one, and I will not tell you about my salary.</t>
+  </si>
+  <si>
+    <t>Simon: What kind of person you are? You don’t know what I am thinking about.</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>John: Hey, do you needs help?</t>
+  </si>
+  <si>
+    <t>Tomas: No…In fact, yes, did you have time for me?</t>
+  </si>
+  <si>
+    <t>Tomas: I have a friend before, but for some reason, she move to other department in last week.</t>
+  </si>
+  <si>
+    <t>Tomas: I want you to talk with her, that I don’t have any gender discrimination language to her.</t>
+  </si>
+  <si>
+    <t>John: Wow, what do you said to her…</t>
+  </si>
+  <si>
+    <t>Tomas: It was a project in our department at last month.</t>
+  </si>
+  <si>
+    <t>Tomas: I said she need to take a rest in the first week of this project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomas: But she think our team isolated her and take all the achievement without her. </t>
+  </si>
+  <si>
+    <t>John: So she think you guys are discriminate her, then she leave this office.</t>
+  </si>
+  <si>
+    <t>Tomas: However, I just think she are working for a long time, and she needs take a vacation for rest.</t>
+  </si>
+  <si>
+    <t>John: Ok, so where is she?</t>
+  </si>
+  <si>
+    <t>Tomas: It is on my right side of the office.</t>
+  </si>
+  <si>
+    <t>John: If you said so, I don't have time for this.</t>
+  </si>
+  <si>
+    <t>Tomas: All right, take you time.</t>
+  </si>
+  <si>
+    <t>John: Hey Selina, did you just move to this department? Tomas asked me to give you a message.</t>
+  </si>
+  <si>
+    <t>Selina: What kind of word does those masculinity people said.</t>
+  </si>
+  <si>
+    <t>John: He said let you take a break is a goodwill, because you are working for a very long time.</t>
+  </si>
+  <si>
+    <t>John: And they don’t have any sense of discrimination to you, they just care about you.</t>
+  </si>
+  <si>
+    <t>Selina: Oh, I think they has some kind of opinion to my gender, because you know, I am the only female in that group.</t>
+  </si>
+  <si>
+    <t>John: You are thinking too deeply, they are pretty nice to everyone.</t>
+  </si>
+  <si>
+    <t>Selina: My bad, tell him I will get back tomorrow.</t>
+  </si>
+  <si>
+    <t>John: Hey Tomas, I told her the truth.</t>
+  </si>
+  <si>
+    <t>Tomas: Thank you for your help, if you have any question or problem, come and get me.</t>
   </si>
 </sst>
 </file>
@@ -645,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1622,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -1636,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -1650,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -1664,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -1678,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -1692,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -1706,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -1720,147 +1849,147 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -1868,13 +1997,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -1882,13 +2011,13 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -1896,13 +2025,13 @@
         <v>85</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -1910,13 +2039,601 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
